--- a/matlab/sri-ipb2-27.xlsx
+++ b/matlab/sri-ipb2-27.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="sri-ipb2-27" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
   <si>
     <t>reactor</t>
   </si>
@@ -77,6 +77,21 @@
   </si>
   <si>
     <t>google exciation of 240 steps</t>
+  </si>
+  <si>
+    <t>2016-09-30_SRI_v171-core27b</t>
+  </si>
+  <si>
+    <t>SRI-IPB2_H2-250-400C_10-05-16_day-11.csv</t>
+  </si>
+  <si>
+    <t>H2-DC</t>
+  </si>
+  <si>
+    <t>2016-12-16_SRI_v181-core27b</t>
+  </si>
+  <si>
+    <t>IPB2_DC_tmp_day-01.csv</t>
   </si>
 </sst>
 </file>
@@ -908,7 +923,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -916,7 +931,7 @@
     <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -1018,7 +1033,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3" t="s">
         <v>16</v>
@@ -1063,17 +1078,20 @@
       <c r="A5" t="s">
         <v>11</v>
       </c>
-      <c r="B5">
-        <v>6</v>
+      <c r="B5" t="s">
+        <v>21</v>
       </c>
       <c r="C5">
-        <v>1112017</v>
+        <v>10152016</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="F5">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -1085,27 +1103,30 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="B6">
-        <v>6</v>
+      <c r="B6" t="s">
+        <v>24</v>
       </c>
       <c r="C6">
-        <v>1122017</v>
+        <v>12312016</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
       </c>
       <c r="E6">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="F6">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1114,10 +1135,10 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" t="s">
         <v>17</v>
@@ -1149,7 +1170,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" t="s">
         <v>18</v>

--- a/matlab/sri-ipb2-27.xlsx
+++ b/matlab/sri-ipb2-27.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="31">
   <si>
     <t>reactor</t>
   </si>
@@ -67,12 +67,6 @@
     <t>google calibration run</t>
   </si>
   <si>
-    <t>to filled</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> to filled</t>
-  </si>
-  <si>
     <t>q-ex1-240_day-01.csv</t>
   </si>
   <si>
@@ -92,6 +86,27 @@
   </si>
   <si>
     <t>IPB2_DC_tmp_day-01.csv</t>
+  </si>
+  <si>
+    <t>IPB2_temp-q-cali_day-01.csv</t>
+  </si>
+  <si>
+    <t>He-DC</t>
+  </si>
+  <si>
+    <t>H2  Qpower step</t>
+  </si>
+  <si>
+    <t>efficiency</t>
+  </si>
+  <si>
+    <t>google excitation 240 steps</t>
+  </si>
+  <si>
+    <t>q-ex-480_day-01.csv</t>
+  </si>
+  <si>
+    <t>google excitation 480 steps</t>
   </si>
 </sst>
 </file>
@@ -920,10 +935,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -934,7 +949,7 @@
     <col min="4" max="4" width="39.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -966,10 +981,13 @@
         <v>9</v>
       </c>
       <c r="K1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -1000,11 +1018,14 @@
       <c r="J2">
         <v>0</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2">
+        <v>0.9</v>
+      </c>
+      <c r="L2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1035,11 +1056,14 @@
       <c r="J3">
         <v>0</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3">
+        <v>0.9</v>
+      </c>
+      <c r="L3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1050,7 +1074,7 @@
         <v>1192017</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E4">
         <v>12</v>
@@ -1070,22 +1094,25 @@
       <c r="J4">
         <v>0</v>
       </c>
-      <c r="K4" t="s">
-        <v>20</v>
+      <c r="K4">
+        <v>0.9</v>
+      </c>
+      <c r="L4" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C5">
         <v>10152016</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>17</v>
@@ -1105,22 +1132,25 @@
       <c r="J5">
         <v>1</v>
       </c>
-      <c r="K5" t="s">
-        <v>23</v>
+      <c r="K5">
+        <v>0.9</v>
+      </c>
+      <c r="L5" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C6">
         <v>12312016</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>20</v>
@@ -1140,25 +1170,31 @@
       <c r="J6">
         <v>1</v>
       </c>
-      <c r="K6" t="s">
-        <v>17</v>
+      <c r="K6">
+        <v>0.9</v>
+      </c>
+      <c r="L6" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
-      <c r="B7">
-        <v>6</v>
+      <c r="B7" t="s">
+        <v>22</v>
       </c>
       <c r="C7">
-        <v>1132017</v>
+        <v>1072017</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
       </c>
       <c r="E7">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="F7">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1172,8 +1208,87 @@
       <c r="J7">
         <v>0</v>
       </c>
-      <c r="K7" t="s">
-        <v>18</v>
+      <c r="K7">
+        <v>0.9</v>
+      </c>
+      <c r="L7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8">
+        <v>1192017</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8">
+        <v>12</v>
+      </c>
+      <c r="F8">
+        <v>14</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0.9</v>
+      </c>
+      <c r="L8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9">
+        <v>1212017</v>
+      </c>
+      <c r="D9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9">
+        <v>15</v>
+      </c>
+      <c r="F9">
+        <v>17</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0.9</v>
+      </c>
+      <c r="L9" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/matlab/sri-ipb2-27.xlsx
+++ b/matlab/sri-ipb2-27.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="33">
   <si>
     <t>reactor</t>
   </si>
@@ -107,6 +107,12 @@
   </si>
   <si>
     <t>google excitation 480 steps</t>
+  </si>
+  <si>
+    <t>q-temp-cali_day-01.csv</t>
+  </si>
+  <si>
+    <t>temperature control and qpow steps</t>
   </si>
 </sst>
 </file>
@@ -935,10 +941,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1115,7 +1121,7 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F5">
         <v>20</v>
@@ -1289,6 +1295,44 @@
       </c>
       <c r="L9" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10">
+        <v>1232017</v>
+      </c>
+      <c r="D10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10">
+        <v>18</v>
+      </c>
+      <c r="F10">
+        <v>20</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0.9</v>
+      </c>
+      <c r="L10" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/matlab/sri-ipb2-27.xlsx
+++ b/matlab/sri-ipb2-27.xlsx
@@ -944,7 +944,7 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/matlab/sri-ipb2-27.xlsx
+++ b/matlab/sri-ipb2-27.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="44">
   <si>
     <t>reactor</t>
   </si>
@@ -40,9 +40,6 @@
     <t>endOffset</t>
   </si>
   <si>
-    <t>isHe</t>
-  </si>
-  <si>
     <t>isDC</t>
   </si>
   <si>
@@ -113,6 +110,42 @@
   </si>
   <si>
     <t>temperature control and qpow steps</t>
+  </si>
+  <si>
+    <t>h2</t>
+  </si>
+  <si>
+    <t>he</t>
+  </si>
+  <si>
+    <t>011317</t>
+  </si>
+  <si>
+    <t>011517</t>
+  </si>
+  <si>
+    <t>011917</t>
+  </si>
+  <si>
+    <t>101516</t>
+  </si>
+  <si>
+    <t>123116</t>
+  </si>
+  <si>
+    <t>010717</t>
+  </si>
+  <si>
+    <t>012117</t>
+  </si>
+  <si>
+    <t>012317</t>
+  </si>
+  <si>
+    <t>012517</t>
+  </si>
+  <si>
+    <t>gas</t>
   </si>
 </sst>
 </file>
@@ -597,8 +630,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -941,10 +975,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -953,6 +987,11 @@
     <col min="2" max="2" width="27.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="39.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -981,30 +1020,30 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" t="s">
         <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" t="s">
         <v>12</v>
-      </c>
-      <c r="C2">
-        <v>1132017</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -1018,8 +1057,8 @@
       <c r="H2">
         <v>0</v>
       </c>
-      <c r="I2">
-        <v>0</v>
+      <c r="I2" t="s">
+        <v>32</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -1028,21 +1067,21 @@
         <v>0.9</v>
       </c>
       <c r="L2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3">
-        <v>1152017</v>
+      <c r="C3" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E3">
         <v>4</v>
@@ -1056,8 +1095,8 @@
       <c r="H3">
         <v>0</v>
       </c>
-      <c r="I3">
-        <v>0</v>
+      <c r="I3" t="s">
+        <v>32</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -1066,21 +1105,21 @@
         <v>0.9</v>
       </c>
       <c r="L3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4">
-        <v>1192017</v>
+      <c r="C4" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E4">
         <v>12</v>
@@ -1094,8 +1133,8 @@
       <c r="H4">
         <v>0</v>
       </c>
-      <c r="I4">
-        <v>0</v>
+      <c r="I4" t="s">
+        <v>32</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -1104,21 +1143,21 @@
         <v>0.9</v>
       </c>
       <c r="L4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" t="s">
         <v>19</v>
-      </c>
-      <c r="C5">
-        <v>10152016</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
       </c>
       <c r="E5">
         <v>18</v>
@@ -1132,8 +1171,8 @@
       <c r="H5">
         <v>0</v>
       </c>
-      <c r="I5">
-        <v>0</v>
+      <c r="I5" t="s">
+        <v>32</v>
       </c>
       <c r="J5">
         <v>1</v>
@@ -1142,21 +1181,21 @@
         <v>0.9</v>
       </c>
       <c r="L5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
-      </c>
-      <c r="C6">
-        <v>12312016</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
       </c>
       <c r="E6">
         <v>20</v>
@@ -1170,8 +1209,8 @@
       <c r="H6">
         <v>0</v>
       </c>
-      <c r="I6">
-        <v>1</v>
+      <c r="I6" t="s">
+        <v>33</v>
       </c>
       <c r="J6">
         <v>1</v>
@@ -1180,21 +1219,21 @@
         <v>0.9</v>
       </c>
       <c r="L6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7">
-        <v>1072017</v>
+        <v>21</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>30</v>
@@ -1208,8 +1247,8 @@
       <c r="H7">
         <v>0</v>
       </c>
-      <c r="I7">
-        <v>0</v>
+      <c r="I7" t="s">
+        <v>32</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -1218,21 +1257,21 @@
         <v>0.9</v>
       </c>
       <c r="L7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
         <v>11</v>
       </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8">
-        <v>1192017</v>
+      <c r="C8" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E8">
         <v>12</v>
@@ -1246,8 +1285,8 @@
       <c r="H8">
         <v>0</v>
       </c>
-      <c r="I8">
-        <v>0</v>
+      <c r="I8" t="s">
+        <v>32</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -1256,21 +1295,21 @@
         <v>0.9</v>
       </c>
       <c r="L8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
         <v>11</v>
       </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9">
-        <v>1212017</v>
+      <c r="C9" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E9">
         <v>15</v>
@@ -1284,8 +1323,8 @@
       <c r="H9">
         <v>0</v>
       </c>
-      <c r="I9">
-        <v>0</v>
+      <c r="I9" t="s">
+        <v>32</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -1294,21 +1333,21 @@
         <v>0.9</v>
       </c>
       <c r="L9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
         <v>11</v>
       </c>
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10">
-        <v>1232017</v>
+      <c r="C10" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="D10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E10">
         <v>18</v>
@@ -1322,8 +1361,8 @@
       <c r="H10">
         <v>0</v>
       </c>
-      <c r="I10">
-        <v>0</v>
+      <c r="I10" t="s">
+        <v>32</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1332,7 +1371,45 @@
         <v>0.9</v>
       </c>
       <c r="L10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11">
+        <v>21</v>
+      </c>
+      <c r="F11">
+        <v>24</v>
+      </c>
+      <c r="G11">
+        <v>7</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11" t="s">
         <v>32</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0.9</v>
+      </c>
+      <c r="L11" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/matlab/sri-ipb2-27.xlsx
+++ b/matlab/sri-ipb2-27.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="45">
   <si>
     <t>reactor</t>
   </si>
@@ -146,6 +146,9 @@
   </si>
   <si>
     <t>gas</t>
+  </si>
+  <si>
+    <t>note</t>
   </si>
 </sst>
 </file>
@@ -975,10 +978,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -994,7 +997,7 @@
     <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1031,8 +1034,11 @@
       <c r="L1" t="s">
         <v>9</v>
       </c>
+      <c r="M1" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1070,7 +1076,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -1108,7 +1114,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1146,7 +1152,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1184,7 +1190,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1222,7 +1228,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1260,7 +1266,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1298,7 +1304,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1336,7 +1342,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1374,7 +1380,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>

--- a/matlab/sri-ipb2-27.xlsx
+++ b/matlab/sri-ipb2-27.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="47">
   <si>
     <t>reactor</t>
   </si>
@@ -149,13 +149,19 @@
   </si>
   <si>
     <t>note</t>
+  </si>
+  <si>
+    <t>after h2, the helium run is the same as 101516 run</t>
+  </si>
+  <si>
+    <t>q-temp-cali2_day-01.csv</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -287,6 +293,28 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -633,9 +661,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -981,440 +1013,447 @@
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="4.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="30.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="40.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
         <v>2</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="1">
         <v>3</v>
       </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1">
         <v>0.9</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <v>4</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <v>7</v>
       </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1">
         <v>0.9</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <v>12</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <v>13</v>
       </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1">
         <v>0.9</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="4">
         <v>18</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="4">
         <v>20</v>
       </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="G5" s="4">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0</v>
+      </c>
+      <c r="I5" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="4">
         <v>1</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="4">
         <v>0.9</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L5" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="4">
         <v>20</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="4">
         <v>21</v>
       </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="G6" s="4">
+        <v>0</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="4">
         <v>1</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="4">
         <v>0.9</v>
       </c>
-      <c r="L6" t="s">
+      <c r="L6" s="4" t="s">
         <v>24</v>
       </c>
+      <c r="M6" s="1" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="4">
         <v>30</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="4">
         <v>32</v>
       </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="G7" s="4">
+        <v>0</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
+      <c r="J7" s="4">
+        <v>0</v>
+      </c>
+      <c r="K7" s="4">
         <v>0.9</v>
       </c>
-      <c r="L7" t="s">
+      <c r="L7" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="1">
         <v>12</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="1">
         <v>14</v>
       </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
+      <c r="J8" s="1">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1">
         <v>0.9</v>
       </c>
-      <c r="L8" t="s">
+      <c r="L8" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="1">
         <v>15</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="1">
         <v>17</v>
       </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
+      <c r="J9" s="1">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1">
         <v>0.9</v>
       </c>
-      <c r="L9" t="s">
+      <c r="L9" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="4">
         <v>18</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="4">
         <v>20</v>
       </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="G10" s="4">
+        <v>0</v>
+      </c>
+      <c r="H10" s="4">
+        <v>0</v>
+      </c>
+      <c r="I10" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
+      <c r="J10" s="4">
+        <v>0</v>
+      </c>
+      <c r="K10" s="4">
         <v>0.9</v>
       </c>
-      <c r="L10" t="s">
+      <c r="L10" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11">
+      <c r="D11" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="4">
         <v>21</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="4">
         <v>24</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="4">
         <v>7</v>
       </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="H11" s="4">
+        <v>0</v>
+      </c>
+      <c r="I11" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
+      <c r="J11" s="4">
+        <v>0</v>
+      </c>
+      <c r="K11" s="4">
         <v>0.9</v>
       </c>
-      <c r="L11" t="s">
+      <c r="L11" s="4" t="s">
         <v>31</v>
       </c>
     </row>

--- a/matlab/sri-ipb2-27.xlsx
+++ b/matlab/sri-ipb2-27.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="51">
   <si>
     <t>reactor</t>
   </si>
@@ -155,6 +155,18 @@
   </si>
   <si>
     <t>q-temp-cali2_day-01.csv</t>
+  </si>
+  <si>
+    <t>termRes</t>
+  </si>
+  <si>
+    <t>IPB2_temp-9167-q-cali_day-01.csv</t>
+  </si>
+  <si>
+    <t>010917</t>
+  </si>
+  <si>
+    <t>H2  91 (ns) Qpower step</t>
   </si>
 </sst>
 </file>
@@ -1010,10 +1022,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1028,12 +1040,13 @@
     <col min="9" max="9" width="3.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="4.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="30.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="40.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="12" max="12" width="7.85546875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="30.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="40.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1068,13 +1081,16 @@
         <v>26</v>
       </c>
       <c r="L1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -1108,11 +1124,14 @@
       <c r="K2" s="1">
         <v>0.9</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -1146,11 +1165,14 @@
       <c r="K3" s="1">
         <v>0.9</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="L3" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -1184,11 +1206,14 @@
       <c r="K4" s="1">
         <v>0.9</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="L4" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="M4" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
@@ -1222,11 +1247,14 @@
       <c r="K5" s="4">
         <v>0.9</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="L5" s="4">
+        <v>1.6</v>
+      </c>
+      <c r="M5" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
@@ -1260,14 +1288,17 @@
       <c r="K6" s="4">
         <v>0.9</v>
       </c>
-      <c r="L6" s="4" t="s">
+      <c r="L6" s="4">
+        <v>1.6</v>
+      </c>
+      <c r="M6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="N6" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>10</v>
       </c>
@@ -1301,11 +1332,14 @@
       <c r="K7" s="4">
         <v>0.9</v>
       </c>
-      <c r="L7" s="4" t="s">
+      <c r="L7" s="4">
+        <v>1.6</v>
+      </c>
+      <c r="M7" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -1339,11 +1373,14 @@
       <c r="K8" s="1">
         <v>0.9</v>
       </c>
-      <c r="L8" s="1" t="s">
+      <c r="L8" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="M8" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -1377,11 +1414,14 @@
       <c r="K9" s="1">
         <v>0.9</v>
       </c>
-      <c r="L9" s="1" t="s">
+      <c r="L9" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="M9" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>10</v>
       </c>
@@ -1415,11 +1455,14 @@
       <c r="K10" s="4">
         <v>0.9</v>
       </c>
-      <c r="L10" s="4" t="s">
+      <c r="L10" s="4">
+        <v>1.6</v>
+      </c>
+      <c r="M10" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
@@ -1453,8 +1496,52 @@
       <c r="K11" s="4">
         <v>0.9</v>
       </c>
-      <c r="L11" s="4" t="s">
+      <c r="L11" s="4">
+        <v>1.6</v>
+      </c>
+      <c r="M11" s="4" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="4">
+        <v>33</v>
+      </c>
+      <c r="F12" s="4">
+        <v>35</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0</v>
+      </c>
+      <c r="H12" s="4">
+        <v>0</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J12" s="4">
+        <v>0</v>
+      </c>
+      <c r="K12" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="L12" s="4">
+        <v>1.6</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/matlab/sri-ipb2-27.xlsx
+++ b/matlab/sri-ipb2-27.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="52">
   <si>
     <t>reactor</t>
   </si>
@@ -167,6 +167,9 @@
   </si>
   <si>
     <t>H2  91 (ns) Qpower step</t>
+  </si>
+  <si>
+    <t>version</t>
   </si>
 </sst>
 </file>
@@ -1022,10 +1025,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1040,13 +1043,14 @@
     <col min="9" max="9" width="3.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="4.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.85546875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="30.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="40.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="12" max="12" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7" style="1" customWidth="1"/>
+    <col min="14" max="14" width="30.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="40.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1084,13 +1088,16 @@
         <v>47</v>
       </c>
       <c r="M1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -1127,11 +1134,14 @@
       <c r="L2" s="1">
         <v>1.6</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="1">
+        <v>182</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -1168,11 +1178,14 @@
       <c r="L3" s="1">
         <v>1.6</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="M3" s="1">
+        <v>182</v>
+      </c>
+      <c r="N3" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -1209,11 +1222,14 @@
       <c r="L4" s="1">
         <v>1.6</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="M4" s="1">
+        <v>182</v>
+      </c>
+      <c r="N4" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
@@ -1233,10 +1249,10 @@
         <v>20</v>
       </c>
       <c r="G5" s="4">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="H5" s="4">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>32</v>
@@ -1250,11 +1266,14 @@
       <c r="L5" s="4">
         <v>1.6</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="M5" s="4">
+        <v>171</v>
+      </c>
+      <c r="N5" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
@@ -1291,14 +1310,17 @@
       <c r="L6" s="4">
         <v>1.6</v>
       </c>
-      <c r="M6" s="4" t="s">
+      <c r="M6" s="4">
+        <v>181</v>
+      </c>
+      <c r="N6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="N6" s="1" t="s">
+      <c r="O6" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>10</v>
       </c>
@@ -1335,11 +1357,14 @@
       <c r="L7" s="4">
         <v>1.6</v>
       </c>
-      <c r="M7" s="4" t="s">
+      <c r="M7" s="4">
+        <v>181</v>
+      </c>
+      <c r="N7" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -1376,11 +1401,14 @@
       <c r="L8" s="1">
         <v>1.6</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="M8" s="1">
+        <v>182</v>
+      </c>
+      <c r="N8" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -1417,11 +1445,14 @@
       <c r="L9" s="1">
         <v>1.6</v>
       </c>
-      <c r="M9" s="1" t="s">
+      <c r="M9" s="1">
+        <v>182</v>
+      </c>
+      <c r="N9" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>10</v>
       </c>
@@ -1458,11 +1489,14 @@
       <c r="L10" s="4">
         <v>1.6</v>
       </c>
-      <c r="M10" s="4" t="s">
+      <c r="M10" s="4">
+        <v>182</v>
+      </c>
+      <c r="N10" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
@@ -1499,11 +1533,14 @@
       <c r="L11" s="4">
         <v>1.6</v>
       </c>
-      <c r="M11" s="4" t="s">
+      <c r="M11" s="4">
+        <v>182</v>
+      </c>
+      <c r="N11" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
@@ -1540,7 +1577,10 @@
       <c r="L12" s="4">
         <v>1.6</v>
       </c>
-      <c r="M12" s="4" t="s">
+      <c r="M12" s="4">
+        <v>181</v>
+      </c>
+      <c r="N12" s="4" t="s">
         <v>50</v>
       </c>
     </row>

--- a/matlab/sri-ipb2-27.xlsx
+++ b/matlab/sri-ipb2-27.xlsx
@@ -1025,10 +1025,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O12"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1584,6 +1584,9 @@
         <v>50</v>
       </c>
     </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="C13" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/matlab/sri-ipb2-27.xlsx
+++ b/matlab/sri-ipb2-27.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="52">
   <si>
     <t>reactor</t>
   </si>
@@ -88,9 +88,6 @@
     <t>IPB2_temp-q-cali_day-01.csv</t>
   </si>
   <si>
-    <t>He-DC</t>
-  </si>
-  <si>
     <t>H2  Qpower step</t>
   </si>
   <si>
@@ -148,12 +145,6 @@
     <t>gas</t>
   </si>
   <si>
-    <t>note</t>
-  </si>
-  <si>
-    <t>after h2, the helium run is the same as 101516 run</t>
-  </si>
-  <si>
     <t>q-temp-cali2_day-01.csv</t>
   </si>
   <si>
@@ -170,13 +161,22 @@
   </si>
   <si>
     <t>version</t>
+  </si>
+  <si>
+    <t>googleModel</t>
+  </si>
+  <si>
+    <t>sri-ipb2-h2-dc-cali2_DKF_Calibration_01.mat</t>
+  </si>
+  <si>
+    <t>He-DC (after h2, the helium run is the same as 101516 run)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -313,23 +313,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="9"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -676,13 +667,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -733,6 +722,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1028,564 +1020,594 @@
   <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="4.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7" style="1" customWidth="1"/>
-    <col min="14" max="14" width="30.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="40.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="4.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7" style="2" customWidth="1"/>
+    <col min="14" max="14" width="36.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="45.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="2">
+        <v>2</v>
+      </c>
+      <c r="F2" s="2">
+        <v>3</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0</v>
+      </c>
+      <c r="K2" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="M2" s="2">
+        <v>182</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="2">
+        <v>4</v>
+      </c>
+      <c r="F3" s="2">
+        <v>7</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="M3" s="2">
+        <v>182</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="2">
+        <v>12</v>
+      </c>
+      <c r="F4" s="2">
+        <v>13</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="L4" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="M4" s="2">
+        <v>182</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="2">
+        <v>18</v>
+      </c>
+      <c r="F5" s="2">
+        <v>20</v>
+      </c>
+      <c r="G5" s="2">
+        <v>12.5</v>
+      </c>
+      <c r="H5" s="2">
+        <v>11</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="L5" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="M5" s="2">
+        <v>171</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="2">
+        <v>20</v>
+      </c>
+      <c r="F6" s="2">
+        <v>21</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6" s="2">
+        <v>1</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="L6" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="M6" s="2">
+        <v>181</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="2">
+        <v>30</v>
+      </c>
+      <c r="F7" s="2">
+        <v>32</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="L7" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="M7" s="2">
+        <v>181</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="2">
+        <v>12</v>
+      </c>
+      <c r="F8" s="2">
+        <v>14</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="L8" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="M8" s="2">
+        <v>182</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="2">
+        <v>15</v>
+      </c>
+      <c r="F9" s="2">
+        <v>17</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0</v>
+      </c>
+      <c r="K9" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="L9" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="M9" s="2">
+        <v>182</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="2">
+        <v>18</v>
+      </c>
+      <c r="F10" s="2">
+        <v>20</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J10" s="2">
+        <v>0</v>
+      </c>
+      <c r="K10" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="L10" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="M10" s="2">
+        <v>182</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L1" s="3" t="s">
+      <c r="E11" s="2">
+        <v>21</v>
+      </c>
+      <c r="F11" s="2">
+        <v>24</v>
+      </c>
+      <c r="G11" s="2">
+        <v>7</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J11" s="2">
+        <v>0</v>
+      </c>
+      <c r="K11" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="L11" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="M11" s="2">
+        <v>182</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="2">
+        <v>33</v>
+      </c>
+      <c r="F12" s="2">
+        <v>35</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J12" s="2">
+        <v>0</v>
+      </c>
+      <c r="K12" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="L12" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="M12" s="2">
+        <v>181</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O12" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="M1" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>44</v>
-      </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="1">
-        <v>2</v>
-      </c>
-      <c r="F2" s="1">
-        <v>3</v>
-      </c>
-      <c r="G2" s="1">
-        <v>0</v>
-      </c>
-      <c r="H2" s="1">
-        <v>0</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J2" s="1">
-        <v>0</v>
-      </c>
-      <c r="K2" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="L2" s="1">
-        <v>1.6</v>
-      </c>
-      <c r="M2" s="1">
-        <v>182</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="1">
-        <v>4</v>
-      </c>
-      <c r="F3" s="1">
-        <v>7</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0</v>
-      </c>
-      <c r="H3" s="1">
-        <v>0</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J3" s="1">
-        <v>0</v>
-      </c>
-      <c r="K3" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="L3" s="1">
-        <v>1.6</v>
-      </c>
-      <c r="M3" s="1">
-        <v>182</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="1">
-        <v>12</v>
-      </c>
-      <c r="F4" s="1">
-        <v>13</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J4" s="1">
-        <v>0</v>
-      </c>
-      <c r="K4" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="L4" s="1">
-        <v>1.6</v>
-      </c>
-      <c r="M4" s="1">
-        <v>182</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="4">
-        <v>18</v>
-      </c>
-      <c r="F5" s="4">
-        <v>20</v>
-      </c>
-      <c r="G5" s="4">
-        <v>12.5</v>
-      </c>
-      <c r="H5" s="4">
-        <v>11</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="J5" s="4">
-        <v>1</v>
-      </c>
-      <c r="K5" s="4">
-        <v>0.9</v>
-      </c>
-      <c r="L5" s="4">
-        <v>1.6</v>
-      </c>
-      <c r="M5" s="4">
-        <v>171</v>
-      </c>
-      <c r="N5" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="4">
-        <v>20</v>
-      </c>
-      <c r="F6" s="4">
-        <v>21</v>
-      </c>
-      <c r="G6" s="4">
-        <v>0</v>
-      </c>
-      <c r="H6" s="4">
-        <v>0</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="J6" s="4">
-        <v>1</v>
-      </c>
-      <c r="K6" s="4">
-        <v>0.9</v>
-      </c>
-      <c r="L6" s="4">
-        <v>1.6</v>
-      </c>
-      <c r="M6" s="4">
-        <v>181</v>
-      </c>
-      <c r="N6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="4">
-        <v>30</v>
-      </c>
-      <c r="F7" s="4">
-        <v>32</v>
-      </c>
-      <c r="G7" s="4">
-        <v>0</v>
-      </c>
-      <c r="H7" s="4">
-        <v>0</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="J7" s="4">
-        <v>0</v>
-      </c>
-      <c r="K7" s="4">
-        <v>0.9</v>
-      </c>
-      <c r="L7" s="4">
-        <v>1.6</v>
-      </c>
-      <c r="M7" s="4">
-        <v>181</v>
-      </c>
-      <c r="N7" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="1">
-        <v>12</v>
-      </c>
-      <c r="F8" s="1">
-        <v>14</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0</v>
-      </c>
-      <c r="H8" s="1">
-        <v>0</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J8" s="1">
-        <v>0</v>
-      </c>
-      <c r="K8" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="L8" s="1">
-        <v>1.6</v>
-      </c>
-      <c r="M8" s="1">
-        <v>182</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="1">
-        <v>15</v>
-      </c>
-      <c r="F9" s="1">
-        <v>17</v>
-      </c>
-      <c r="G9" s="1">
-        <v>0</v>
-      </c>
-      <c r="H9" s="1">
-        <v>0</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J9" s="1">
-        <v>0</v>
-      </c>
-      <c r="K9" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="L9" s="1">
-        <v>1.6</v>
-      </c>
-      <c r="M9" s="1">
-        <v>182</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="4">
-        <v>18</v>
-      </c>
-      <c r="F10" s="4">
-        <v>20</v>
-      </c>
-      <c r="G10" s="4">
-        <v>0</v>
-      </c>
-      <c r="H10" s="4">
-        <v>0</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="J10" s="4">
-        <v>0</v>
-      </c>
-      <c r="K10" s="4">
-        <v>0.9</v>
-      </c>
-      <c r="L10" s="4">
-        <v>1.6</v>
-      </c>
-      <c r="M10" s="4">
-        <v>182</v>
-      </c>
-      <c r="N10" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E11" s="4">
-        <v>21</v>
-      </c>
-      <c r="F11" s="4">
-        <v>24</v>
-      </c>
-      <c r="G11" s="4">
-        <v>7</v>
-      </c>
-      <c r="H11" s="4">
-        <v>0</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="J11" s="4">
-        <v>0</v>
-      </c>
-      <c r="K11" s="4">
-        <v>0.9</v>
-      </c>
-      <c r="L11" s="4">
-        <v>1.6</v>
-      </c>
-      <c r="M11" s="4">
-        <v>182</v>
-      </c>
-      <c r="N11" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12" s="4">
-        <v>33</v>
-      </c>
-      <c r="F12" s="4">
-        <v>35</v>
-      </c>
-      <c r="G12" s="4">
-        <v>0</v>
-      </c>
-      <c r="H12" s="4">
-        <v>0</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="J12" s="4">
-        <v>0</v>
-      </c>
-      <c r="K12" s="4">
-        <v>0.9</v>
-      </c>
-      <c r="L12" s="4">
-        <v>1.6</v>
-      </c>
-      <c r="M12" s="4">
-        <v>181</v>
-      </c>
-      <c r="N12" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="C13" s="2"/>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C13" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
